--- a/output/fit_clients/fit_round_445.xlsx
+++ b/output/fit_clients/fit_round_445.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2219785846.137158</v>
+        <v>1543924263.407316</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08140691208469959</v>
+        <v>0.07320181985169021</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04160700328995643</v>
+        <v>0.04554309955471888</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1109892948.265586</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1612913460.437107</v>
+        <v>2312890993.407464</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1800973276882567</v>
+        <v>0.1336183463643328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05001924778983338</v>
+        <v>0.0355139716155297</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>806456710.3500669</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4142870343.343877</v>
+        <v>3406376792.291527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1553858182907902</v>
+        <v>0.1473151239136477</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02758946883590175</v>
+        <v>0.02660974524615826</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>161</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2071435195.983688</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3480868899.64219</v>
+        <v>3071851399.66959</v>
       </c>
       <c r="F5" t="n">
-        <v>0.110682178890181</v>
+        <v>0.0839226242619911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03265261099093651</v>
+        <v>0.04070554394939164</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>165</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1740434487.884207</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2702245260.340405</v>
+        <v>2328009477.637059</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1437326466965597</v>
+        <v>0.1206702112407014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04727931347224108</v>
+        <v>0.03849215925417337</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1351122583.78709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2435058590.115729</v>
+        <v>2022011396.405023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08797794694991379</v>
+        <v>0.07384327030835203</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04913457189819411</v>
+        <v>0.03599397058801677</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>140</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1217529314.321656</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3910790083.416397</v>
+        <v>3741994417.058595</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1343648865458834</v>
+        <v>0.1934158712788518</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02021285765951223</v>
+        <v>0.02204470043817666</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>142</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1955395192.348217</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1402299954.062196</v>
+        <v>1764644732.879757</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1508842143128572</v>
+        <v>0.1652021766379119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02793955373046968</v>
+        <v>0.02487970575356159</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>701150086.5771638</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4673566086.522126</v>
+        <v>5386314458.83581</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1442424486166057</v>
+        <v>0.1936639644501842</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0541251358896744</v>
+        <v>0.04586095396593549</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>187</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2336783117.307258</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3559839848.13484</v>
+        <v>3040019025.397594</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1398989613430753</v>
+        <v>0.1706253634873339</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03718178162301628</v>
+        <v>0.04714718434657457</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>184</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1779919906.114013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2107374541.168324</v>
+        <v>2475339358.42409</v>
       </c>
       <c r="F12" t="n">
-        <v>0.12109126896787</v>
+        <v>0.1757114035304048</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04469437728573622</v>
+        <v>0.04439817901392305</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1053687206.88768</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4890527652.135249</v>
+        <v>4180357219.678308</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09029317449978912</v>
+        <v>0.08824052290968035</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02990295248188749</v>
+        <v>0.02249306659562583</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>149</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2445263835.784943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3822730027.972361</v>
+        <v>2734234382.337011</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1491945279391683</v>
+        <v>0.1556102399317192</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03950115081710339</v>
+        <v>0.03136656892732655</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>143</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1911364988.864414</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1666466129.825096</v>
+        <v>1493938632.079097</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09130373523505186</v>
+        <v>0.1011372090767266</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03517763877525037</v>
+        <v>0.04105578014207214</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>833233188.1765196</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2241187167.065773</v>
+        <v>1912952266.97182</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1157103186047415</v>
+        <v>0.1025501971265586</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03365468748189052</v>
+        <v>0.04743899944474866</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1120593637.487314</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4297459937.719549</v>
+        <v>4429527803.057822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1582264143242413</v>
+        <v>0.1331173016952643</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04055206607936636</v>
+        <v>0.04056963740304161</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>134</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2148729988.78398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2634203383.914593</v>
+        <v>2612044947.409419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1132859415016788</v>
+        <v>0.1276533466439018</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02214750976536133</v>
+        <v>0.03435853987719579</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>146</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1317101748.698261</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1210623828.896278</v>
+        <v>1133199202.653491</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1454891646438179</v>
+        <v>0.121276550053546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01699967849817377</v>
+        <v>0.02404434469880899</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>605311994.9604753</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1956835342.673644</v>
+        <v>1863901896.551687</v>
       </c>
       <c r="F20" t="n">
-        <v>0.106495712240372</v>
+        <v>0.1476506945106503</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02115231536083683</v>
+        <v>0.03114260674694643</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>978417702.3060477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1725328446.126352</v>
+        <v>2185861710.520195</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1011935598574767</v>
+        <v>0.08495232593154027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0420285660788605</v>
+        <v>0.0408011874090647</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>862664285.3063004</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2938888390.061004</v>
+        <v>2929720924.688387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.130738666689733</v>
+        <v>0.1404277458761901</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04075854001948265</v>
+        <v>0.03883441516885596</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1469444260.236917</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1186666855.915461</v>
+        <v>1054778125.661635</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1521871879157678</v>
+        <v>0.1641386273055587</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05198791543837992</v>
+        <v>0.03519007719897251</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>593333466.6987382</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3797981267.564302</v>
+        <v>2752234888.971358</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443735856501774</v>
+        <v>0.09025652660960327</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02264489203644335</v>
+        <v>0.02968397358871392</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>130</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1898990615.37669</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1353426807.74882</v>
+        <v>931837035.3612045</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08211745238746683</v>
+        <v>0.09261280209910276</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02391146250305069</v>
+        <v>0.01934174498429149</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>676713386.5679119</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1413890987.425972</v>
+        <v>1277417774.128722</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1024708911545585</v>
+        <v>0.07673025028656633</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03258657045499979</v>
+        <v>0.02889473139159683</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>706945567.1203184</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4554439003.963984</v>
+        <v>3621165259.876538</v>
       </c>
       <c r="F27" t="n">
-        <v>0.150253099659338</v>
+        <v>0.1243544252431003</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0241615985188846</v>
+        <v>0.02313909012421739</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2277219484.613274</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3857648903.263247</v>
+        <v>3550818304.162588</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1142546089462408</v>
+        <v>0.10602074270659</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03438965445613775</v>
+        <v>0.04312307504261586</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>144</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1928824537.328644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3998130457.862035</v>
+        <v>4843322160.321471</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1497617184516163</v>
+        <v>0.1087785014644267</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03961422904701112</v>
+        <v>0.04276470990417691</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>197</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1999065245.906539</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1815660547.072672</v>
+        <v>2219490238.9704</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1234504223711953</v>
+        <v>0.1095381563569445</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03913346951671742</v>
+        <v>0.03849784673293929</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>907830290.0194124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1213768874.003596</v>
+        <v>1266138667.680928</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09140841334984132</v>
+        <v>0.1107146029293221</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03565170804635268</v>
+        <v>0.03299709630351431</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>606884385.2464049</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1878935346.958537</v>
+        <v>1550616205.452906</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09674768873237204</v>
+        <v>0.09330972409151427</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03433178930684434</v>
+        <v>0.02970374033483086</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>939467820.3405722</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2207092181.820755</v>
+        <v>1910945826.170341</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1749002320700709</v>
+        <v>0.1470252005804945</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04011961827742711</v>
+        <v>0.0488690094413418</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>137</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1103546154.066653</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1054522326.266168</v>
+        <v>1332804986.539234</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1076538724012735</v>
+        <v>0.1140715993875541</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02026453785497472</v>
+        <v>0.01742570654445598</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>527261192.1060853</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>976181808.3780574</v>
+        <v>1183251560.10261</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1003139288106486</v>
+        <v>0.1139524009584494</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03885153179315221</v>
+        <v>0.04377675746582134</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>488090928.0085742</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3105419608.174313</v>
+        <v>3109317127.459298</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1702519855091607</v>
+        <v>0.1709952503659276</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02368091094773226</v>
+        <v>0.02040293381558024</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1552709777.584421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2004498001.842161</v>
+        <v>2777500900.735498</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1023585593429504</v>
+        <v>0.09518407892373058</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0339438132795277</v>
+        <v>0.02904858501185514</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1002249028.848141</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1358456988.31765</v>
+        <v>2154654552.41328</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09631000623138894</v>
+        <v>0.08828158617550039</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02585880713086641</v>
+        <v>0.03693216007858676</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>679228563.4274532</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2005527692.630125</v>
+        <v>1488033543.190834</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1572856505173007</v>
+        <v>0.1472746446396042</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03198241194856431</v>
+        <v>0.03197394725322045</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1002763840.038793</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1247788149.010933</v>
+        <v>1621979553.826468</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1597986007689532</v>
+        <v>0.1622356998677839</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05945573051221611</v>
+        <v>0.05905827289111548</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>623894103.8383763</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2007383720.422378</v>
+        <v>2484627145.384426</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1636965127071173</v>
+        <v>0.154658965149832</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04074672283576064</v>
+        <v>0.04662623787408884</v>
       </c>
       <c r="H41" t="b">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1003691933.710001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2664309287.311408</v>
+        <v>3900960564.506611</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1082265336500824</v>
+        <v>0.1118608954890563</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04629482114488694</v>
+        <v>0.04248598205442983</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1332154581.032948</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3029195132.113539</v>
+        <v>2895724312.352829</v>
       </c>
       <c r="F43" t="n">
-        <v>0.123703751530174</v>
+        <v>0.1645611760801427</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0222360264815085</v>
+        <v>0.02346714648693087</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>154</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1514597561.527057</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2313565856.92566</v>
+        <v>1883859947.759198</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08738991339999391</v>
+        <v>0.08615262099742041</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03520722302106575</v>
+        <v>0.02744584605146431</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1156783097.372588</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1780840225.639549</v>
+        <v>1646466176.182103</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1248636294776544</v>
+        <v>0.1642591971502426</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04988309444641786</v>
+        <v>0.05044690575605219</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>890420081.6214858</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5031593098.688288</v>
+        <v>5694839706.659183</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1274630140950927</v>
+        <v>0.1205220577507111</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05767758417645853</v>
+        <v>0.055531711728264</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>158</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2515796577.955472</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5035785019.341637</v>
+        <v>4868975480.527822</v>
       </c>
       <c r="F47" t="n">
-        <v>0.150214790853416</v>
+        <v>0.1236232867106266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04989174193996745</v>
+        <v>0.04840045728192768</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2517892567.50472</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3584275246.915781</v>
+        <v>3271596741.06541</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07173671263229398</v>
+        <v>0.0756747073426489</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03278488982920599</v>
+        <v>0.02720733363785489</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1792137681.995387</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1673796405.362787</v>
+        <v>1707679353.651937</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1568004858818179</v>
+        <v>0.1435505330079138</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02742259561896202</v>
+        <v>0.04253654534976504</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>836898207.7159134</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4174323542.138782</v>
+        <v>3641408197.686358</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1192377071420986</v>
+        <v>0.13842955754909</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04547062415913122</v>
+        <v>0.04766455075535889</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>152</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2087161747.368583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1254053988.052061</v>
+        <v>1450468692.850996</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1183005551095901</v>
+        <v>0.1590462961061535</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03890088836761665</v>
+        <v>0.03930854664193282</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>627027036.8288414</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4698092699.368639</v>
+        <v>3744396933.924614</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08926193379479103</v>
+        <v>0.09010453699845354</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05574532622470475</v>
+        <v>0.03916350656062238</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>184</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2349046365.101655</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3424272590.978958</v>
+        <v>2581479554.026456</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1767418944140826</v>
+        <v>0.1432007845127954</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03055684821237154</v>
+        <v>0.02696904627205091</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1712136298.650825</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3076186261.990238</v>
+        <v>3935854119.515113</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1463208399080493</v>
+        <v>0.1658623634223174</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04547681140662564</v>
+        <v>0.04898732831697541</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>145</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1538093122.537212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3360104880.213743</v>
+        <v>3960479475.783875</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1892292747443954</v>
+        <v>0.1435643276702391</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02220239271574468</v>
+        <v>0.03249469993608649</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1680052386.782167</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1822115003.041151</v>
+        <v>1154827098.089644</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1547061769780722</v>
+        <v>0.1178127896640218</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05470909001925512</v>
+        <v>0.03735209652441178</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>911057496.0667698</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4436212019.3057</v>
+        <v>4494929786.531976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1199726991888786</v>
+        <v>0.1529092034381689</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02213197248253417</v>
+        <v>0.02243718458304778</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>141</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2218106134.664682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1636746161.293693</v>
+        <v>1202994645.002207</v>
       </c>
       <c r="F58" t="n">
-        <v>0.189489938450488</v>
+        <v>0.1937133458555688</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03391984077695101</v>
+        <v>0.02904792817825132</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>818373099.3199142</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4410132013.536152</v>
+        <v>4472164372.418981</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09038119730675441</v>
+        <v>0.1127649566393035</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04233602391386395</v>
+        <v>0.04703906677394443</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>123</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2205065962.956637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2914027054.154167</v>
+        <v>3179985292.759136</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1469501577290986</v>
+        <v>0.1450795597620535</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03204005618988198</v>
+        <v>0.02983414616900855</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>138</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1457013588.427678</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2449393367.667963</v>
+        <v>2913187259.661514</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1369349403699701</v>
+        <v>0.1126286279620269</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03063828905049838</v>
+        <v>0.03060403764046075</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>153</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1224696716.244817</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1728637237.272351</v>
+        <v>1908681618.746719</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1412410294706789</v>
+        <v>0.119061831128718</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04089037485839168</v>
+        <v>0.04585662510850987</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>864318636.0322101</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5594195473.691205</v>
+        <v>4079120703.591922</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06886609407896954</v>
+        <v>0.07416945425235333</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04745006423460997</v>
+        <v>0.04160679834515758</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>128</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2797097728.095591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4662577018.400944</v>
+        <v>5099336125.895903</v>
       </c>
       <c r="F64" t="n">
-        <v>0.167787212644726</v>
+        <v>0.1774524368394323</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0292105833462906</v>
+        <v>0.02266112861320636</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>139</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2331288591.67522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4847902264.732913</v>
+        <v>3822343784.967142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1567356387703363</v>
+        <v>0.114457486108752</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03217699128327586</v>
+        <v>0.02072997761250325</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>160</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2423951100.360483</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4873097083.374304</v>
+        <v>4386647050.49319</v>
       </c>
       <c r="F66" t="n">
-        <v>0.150517973692517</v>
+        <v>0.1095058984217344</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03473612567759767</v>
+        <v>0.046770160525858</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2436548562.037046</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2841000564.550212</v>
+        <v>2265467595.45579</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08030980494617376</v>
+        <v>0.07896278502488785</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04905846023976067</v>
+        <v>0.04317268247649921</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>141</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1420500313.988409</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4882183512.598986</v>
+        <v>5563115007.098044</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1037426753685051</v>
+        <v>0.1027229422734117</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03451155632950725</v>
+        <v>0.05035393720138099</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2441091805.569901</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1542939674.488881</v>
+        <v>2405415271.99904</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1211515815449363</v>
+        <v>0.1405569394094981</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0432022260018872</v>
+        <v>0.05819400172243232</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>771469783.1218703</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3721225479.544036</v>
+        <v>3460101115.88656</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07015740931750812</v>
+        <v>0.0668441865729312</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03133701655089338</v>
+        <v>0.03808754875064804</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>128</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1860612763.674708</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4903340717.564957</v>
+        <v>5530556571.026306</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1337144114455303</v>
+        <v>0.131358142717903</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02803303329514869</v>
+        <v>0.02288249282795468</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>162</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2451670457.276256</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2090370691.291571</v>
+        <v>1600213646.498576</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06563584211536783</v>
+        <v>0.08810500601852204</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03273278118520084</v>
+        <v>0.0389891476644558</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1045185277.405773</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3039145404.88484</v>
+        <v>3221616965.145011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07186693293817707</v>
+        <v>0.08535585871678787</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04407648275501211</v>
+        <v>0.03703174001937957</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>168</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1519572694.854307</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2473967946.462995</v>
+        <v>3102385302.024197</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1795399688613504</v>
+        <v>0.1456158806869754</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03354354144832742</v>
+        <v>0.02923379315210122</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>152</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1236984084.139894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2461174280.617176</v>
+        <v>1921473262.449469</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1421118427338936</v>
+        <v>0.1655603801780617</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02389109052753614</v>
+        <v>0.02499582575692041</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
         <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1230587061.250292</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4539734170.454699</v>
+        <v>3504727261.69497</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1092365756976562</v>
+        <v>0.08697120593753875</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03095030716673795</v>
+        <v>0.02867815512436814</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2269867092.616437</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1547844068.582663</v>
+        <v>2242855504.449755</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1358721265707023</v>
+        <v>0.1163533164973462</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01960471248913881</v>
+        <v>0.02634655827031608</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>773922029.0535233</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4015780695.129901</v>
+        <v>3274753239.268806</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1185459489592611</v>
+        <v>0.1051465031564221</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05716353600069646</v>
+        <v>0.04344345925255337</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>155</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2007890312.164459</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1509602846.707977</v>
+        <v>1718466224.14879</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1216519724193361</v>
+        <v>0.1490193403109575</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03455452223098618</v>
+        <v>0.03388991522953614</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>754801459.2789108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4957387796.866803</v>
+        <v>4138712559.89818</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07326921019448009</v>
+        <v>0.07071317417538968</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03745512642383262</v>
+        <v>0.02442403136991805</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2478693945.531624</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3944380223.42687</v>
+        <v>3578742024.342335</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1265376029172106</v>
+        <v>0.132770720957467</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02523775407516758</v>
+        <v>0.02426793253665569</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1972190072.888875</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3510547600.523553</v>
+        <v>4888901979.953331</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1779821132000257</v>
+        <v>0.2037197004777549</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02305155379281007</v>
+        <v>0.02387007992096775</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>157</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1755273867.346686</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1692768861.326506</v>
+        <v>2222823032.711592</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1275782222381395</v>
+        <v>0.1262529424747538</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03151457031726955</v>
+        <v>0.03462400578663636</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>846384377.782968</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2211509768.946672</v>
+        <v>1728851581.558913</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1190260357793606</v>
+        <v>0.08752143965455485</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03173139489618899</v>
+        <v>0.03556890285199759</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1105754858.496871</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3641810509.96137</v>
+        <v>2900273098.300965</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1491204120444149</v>
+        <v>0.1369647526348139</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05178678731939333</v>
+        <v>0.04915992136607381</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>167</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1820905385.987339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2165498255.113461</v>
+        <v>1939064917.443623</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1341539883441305</v>
+        <v>0.1234277822684438</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02297476328925814</v>
+        <v>0.01669507742555052</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1082749178.204936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1003266997.536627</v>
+        <v>1228246094.99743</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1805470668297039</v>
+        <v>0.1746654571095427</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03468729603367856</v>
+        <v>0.03824355163044147</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>501633503.9423606</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2805305862.658651</v>
+        <v>3593711810.19462</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1287017413911215</v>
+        <v>0.154912491620568</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03224658272294974</v>
+        <v>0.03597674436067213</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>177</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1402652942.542747</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3067495302.309</v>
+        <v>3400327703.225402</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1423837252862115</v>
+        <v>0.1455878019207821</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04043194912271941</v>
+        <v>0.04018932578285107</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>151</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1533747684.349341</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1342976186.618845</v>
+        <v>2062579099.078918</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09825171373664594</v>
+        <v>0.1344274301720036</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05603751271974838</v>
+        <v>0.04625639089878023</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>671488043.3532671</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1699373678.969579</v>
+        <v>1475073752.141418</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1937511006634152</v>
+        <v>0.195606570534667</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05225984062818916</v>
+        <v>0.05038759120763631</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>849686851.8321751</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2521722380.948548</v>
+        <v>2624544049.112139</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1072476764246334</v>
+        <v>0.1090861468206358</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03155874908057697</v>
+        <v>0.04766249407731971</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1260861176.09428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3981212533.994716</v>
+        <v>4105371412.269979</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1271109850249746</v>
+        <v>0.1290310939622401</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05304872184097496</v>
+        <v>0.04462550606318452</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1990606268.849234</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1524721828.177382</v>
+        <v>1692411174.074467</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1058996266938502</v>
+        <v>0.1558384641079755</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03890774789749534</v>
+        <v>0.0406905538161243</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>762360850.5681409</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2028320903.142831</v>
+        <v>3242076805.723402</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1322679270116389</v>
+        <v>0.1072155205810491</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03202049301758747</v>
+        <v>0.04959813884302702</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1014160521.973756</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2045339841.415298</v>
+        <v>2064794462.841593</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08925098674642581</v>
+        <v>0.1409554849975533</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03312582869020098</v>
+        <v>0.04654530647609028</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1022669902.884307</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4494576204.425936</v>
+        <v>3622225877.845191</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1488592089221037</v>
+        <v>0.1474698750562998</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02467694276299208</v>
+        <v>0.02100552688152068</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>143</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2247288198.378044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2418705128.810357</v>
+        <v>2799443744.469027</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1160567411253387</v>
+        <v>0.1158448038554405</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02549020387397614</v>
+        <v>0.02620132125346905</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1209352509.690346</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2394803043.297603</v>
+        <v>2935520682.440725</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1224104798462303</v>
+        <v>0.1255477490454238</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02640691875821752</v>
+        <v>0.0326440921265936</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>140</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1197401463.742785</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4108855084.748552</v>
+        <v>2969800100.895364</v>
       </c>
       <c r="F100" t="n">
-        <v>0.137343123306713</v>
+        <v>0.1397240315102997</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01734833668757393</v>
+        <v>0.01831788696224423</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2054427621.762833</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3588271726.558783</v>
+        <v>3368570354.781919</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2125319764811072</v>
+        <v>0.194232485272834</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05344670282279219</v>
+        <v>0.0451134925408519</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>182</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1794136030.071054</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_445.xlsx
+++ b/output/fit_clients/fit_round_445.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1543924263.407316</v>
+        <v>2410384142.458087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07320181985169021</v>
+        <v>0.106625999189866</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04554309955471888</v>
+        <v>0.0373976409758162</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2312890993.407464</v>
+        <v>2463408095.939098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1336183463643328</v>
+        <v>0.1543409192080387</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0355139716155297</v>
+        <v>0.03481929010458147</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3406376792.291527</v>
+        <v>5102161141.253864</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1473151239136477</v>
+        <v>0.154093151915565</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02660974524615826</v>
+        <v>0.03118177518926265</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3071851399.66959</v>
+        <v>3225609701.869034</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0839226242619911</v>
+        <v>0.09307624967249827</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04070554394939164</v>
+        <v>0.04379396652388018</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2328009477.637059</v>
+        <v>2033876657.011893</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1206702112407014</v>
+        <v>0.1310885820635766</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03849215925417337</v>
+        <v>0.04154041904088772</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2022011396.405023</v>
+        <v>3035091843.497786</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07384327030835203</v>
+        <v>0.06447238926592742</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03599397058801677</v>
+        <v>0.04116605391073973</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3741994417.058595</v>
+        <v>3316223734.64204</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1934158712788518</v>
+        <v>0.1894675734077306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02204470043817666</v>
+        <v>0.02496030714165776</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1764644732.879757</v>
+        <v>1787260558.204708</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1652021766379119</v>
+        <v>0.1468130500354112</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02487970575356159</v>
+        <v>0.03034921043070318</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5386314458.83581</v>
+        <v>4662415382.760219</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1936639644501842</v>
+        <v>0.2128720568326416</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04586095396593549</v>
+        <v>0.0402933373658099</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3040019025.397594</v>
+        <v>3767605048.360136</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1706253634873339</v>
+        <v>0.1726712476046771</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04714718434657457</v>
+        <v>0.03568653746074179</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2475339358.42409</v>
+        <v>2232534774.169764</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1757114035304048</v>
+        <v>0.1946170829588192</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04439817901392305</v>
+        <v>0.03802418701899172</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4180357219.678308</v>
+        <v>5078818420.250257</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08824052290968035</v>
+        <v>0.09175745666141365</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02249306659562583</v>
+        <v>0.03081435140729939</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2734234382.337011</v>
+        <v>3470138130.662167</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1556102399317192</v>
+        <v>0.1200928481690605</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03136656892732655</v>
+        <v>0.0442279426651524</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1493938632.079097</v>
+        <v>1360236031.126464</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1011372090767266</v>
+        <v>0.1066434884926454</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04105578014207214</v>
+        <v>0.03882555841988455</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1912952266.97182</v>
+        <v>2055501059.68417</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1025501971265586</v>
+        <v>0.1117850540854498</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04743899944474866</v>
+        <v>0.03628273807063068</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4429527803.057822</v>
+        <v>3415523140.9727</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1331173016952643</v>
+        <v>0.1277078835147689</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04056963740304161</v>
+        <v>0.04690274796828865</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2612044947.409419</v>
+        <v>2771604794.535387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1276533466439018</v>
+        <v>0.114655954453449</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03435853987719579</v>
+        <v>0.02650091063536564</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1133199202.653491</v>
+        <v>1255939143.569241</v>
       </c>
       <c r="F19" t="n">
-        <v>0.121276550053546</v>
+        <v>0.1579746903829381</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02404434469880899</v>
+        <v>0.01703154628723365</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -990,16 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1863901896.551687</v>
+        <v>2328568716.151438</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1476506945106503</v>
+        <v>0.1057548430979823</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03114260674694643</v>
+        <v>0.03015465392066417</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2185861710.520195</v>
+        <v>2469108788.026923</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08495232593154027</v>
+        <v>0.09771537596830436</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0408011874090647</v>
+        <v>0.03204110760349151</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2929720924.688387</v>
+        <v>2931685359.296959</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1404277458761901</v>
+        <v>0.1030388270077684</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03883441516885596</v>
+        <v>0.04670882061196337</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1054778125.661635</v>
+        <v>984163034.9033829</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1641386273055587</v>
+        <v>0.1749771626797249</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03519007719897251</v>
+        <v>0.03416515778112241</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2752234888.971358</v>
+        <v>2722852979.796187</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09025652660960327</v>
+        <v>0.1130650111082556</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02968397358871392</v>
+        <v>0.03620153644019622</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>931837035.3612045</v>
+        <v>1283012444.708333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09261280209910276</v>
+        <v>0.09289608601495489</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01934174498429149</v>
+        <v>0.02506095090937573</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1277417774.128722</v>
+        <v>1334295742.072236</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07673025028656633</v>
+        <v>0.1198930359159902</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02889473139159683</v>
+        <v>0.02416338372975903</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3621165259.876538</v>
+        <v>4610683324.611472</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1243544252431003</v>
+        <v>0.104135308438586</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02313909012421739</v>
+        <v>0.02041754353647298</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3550818304.162588</v>
+        <v>3337401245.738405</v>
       </c>
       <c r="F28" t="n">
-        <v>0.10602074270659</v>
+        <v>0.1481934993254163</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04312307504261586</v>
+        <v>0.04421485277946326</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4843322160.321471</v>
+        <v>3805152181.342392</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1087785014644267</v>
+        <v>0.1400258241486562</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04276470990417691</v>
+        <v>0.03665576116981229</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2219490238.9704</v>
+        <v>1915919356.949788</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1095381563569445</v>
+        <v>0.09460920324510963</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03849784673293929</v>
+        <v>0.03018330561402073</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1266138667.680928</v>
+        <v>1123486655.088834</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1107146029293221</v>
+        <v>0.07593671593369307</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03299709630351431</v>
+        <v>0.0411731457449448</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1550616205.452906</v>
+        <v>1731754818.205722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09330972409151427</v>
+        <v>0.08213147749927041</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02970374033483086</v>
+        <v>0.02916794318256857</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1910945826.170341</v>
+        <v>2739145910.703363</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1470252005804945</v>
+        <v>0.1695567982616085</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0488690094413418</v>
+        <v>0.05502864688701242</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1332804986.539234</v>
+        <v>1039298874.446632</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1140715993875541</v>
+        <v>0.0996002990236944</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01742570654445598</v>
+        <v>0.02557765962993662</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1183251560.10261</v>
+        <v>1053060105.280452</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1139524009584494</v>
+        <v>0.08585148579152628</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04377675746582134</v>
+        <v>0.03631878146326047</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3109317127.459298</v>
+        <v>2909118274.028695</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1709952503659276</v>
+        <v>0.1388691838030179</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02040293381558024</v>
+        <v>0.01742919641071004</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2777500900.735498</v>
+        <v>2257505286.323106</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09518407892373058</v>
+        <v>0.08981369903040558</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02904858501185514</v>
+        <v>0.0296029335953067</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2154654552.41328</v>
+        <v>1381369740.376348</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08828158617550039</v>
+        <v>0.1149074261471087</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03693216007858676</v>
+        <v>0.03080094853951416</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1488033543.190834</v>
+        <v>1381078822.049767</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1472746446396042</v>
+        <v>0.1665529224228119</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03197394725322045</v>
+        <v>0.02916718014901965</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1621979553.826468</v>
+        <v>1534604399.619274</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1622356998677839</v>
+        <v>0.1291328608166437</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05905827289111548</v>
+        <v>0.05876213017878459</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2484627145.384426</v>
+        <v>1919582560.607252</v>
       </c>
       <c r="F41" t="n">
-        <v>0.154658965149832</v>
+        <v>0.1425805889087667</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04662623787408884</v>
+        <v>0.04222144263152874</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3900960564.506611</v>
+        <v>3664665165.584026</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1118608954890563</v>
+        <v>0.1010735626413957</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04248598205442983</v>
+        <v>0.04279166013763852</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2895724312.352829</v>
+        <v>1987012431.400975</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1645611760801427</v>
+        <v>0.1733548404209135</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02346714648693087</v>
+        <v>0.02232708982231724</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1883859947.759198</v>
+        <v>2115666984.259506</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08615262099742041</v>
+        <v>0.1010431815082224</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02744584605146431</v>
+        <v>0.03507777152211866</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1646466176.182103</v>
+        <v>2170406484.93414</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1642591971502426</v>
+        <v>0.17814358548691</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05044690575605219</v>
+        <v>0.0397828373674354</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5694839706.659183</v>
+        <v>3894251714.527849</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1205220577507111</v>
+        <v>0.1765929150993399</v>
       </c>
       <c r="G46" t="n">
-        <v>0.055531711728264</v>
+        <v>0.05150340830839365</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4868975480.527822</v>
+        <v>3633129026.307391</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1236232867106266</v>
+        <v>0.1734999178646538</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04840045728192768</v>
+        <v>0.05080069757456478</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3271596741.06541</v>
+        <v>4111566260.777172</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0756747073426489</v>
+        <v>0.08960134577536664</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02720733363785489</v>
+        <v>0.03835545740450552</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1707679353.651937</v>
+        <v>1496449160.322924</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1435505330079138</v>
+        <v>0.1718771193990331</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04253654534976504</v>
+        <v>0.03574094110538976</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3641408197.686358</v>
+        <v>3974657197.34604</v>
       </c>
       <c r="F50" t="n">
-        <v>0.13842955754909</v>
+        <v>0.1126221197449849</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04766455075535889</v>
+        <v>0.03675976168126113</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1450468692.850996</v>
+        <v>1080063156.730672</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1590462961061535</v>
+        <v>0.1237538512360295</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03930854664193282</v>
+        <v>0.03938830252031127</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3744396933.924614</v>
+        <v>4061607344.003886</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09010453699845354</v>
+        <v>0.1211968976233014</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03916350656062238</v>
+        <v>0.03757528642091364</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2581479554.026456</v>
+        <v>2361930852.496604</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1432007845127954</v>
+        <v>0.2043254326920042</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02696904627205091</v>
+        <v>0.02377500849248538</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3935854119.515113</v>
+        <v>4875804692.634431</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1658623634223174</v>
+        <v>0.133057736854159</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04898732831697541</v>
+        <v>0.05151635416199568</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3960479475.783875</v>
+        <v>4705373516.447772</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1435643276702391</v>
+        <v>0.1513447283186982</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03249469993608649</v>
+        <v>0.02268008107332637</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1154827098.089644</v>
+        <v>1497390224.608814</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1178127896640218</v>
+        <v>0.1358094903153172</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03735209652441178</v>
+        <v>0.05388713760427261</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4494929786.531976</v>
+        <v>2976137765.702007</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1529092034381689</v>
+        <v>0.1562182618917924</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02243718458304778</v>
+        <v>0.02720371094038866</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1202994645.002207</v>
+        <v>1572073997.863043</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1937133458555688</v>
+        <v>0.1838609356307133</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02904792817825132</v>
+        <v>0.03936900797493034</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4472164372.418981</v>
+        <v>4451066810.776811</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1127649566393035</v>
+        <v>0.1049425315911741</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04703906677394443</v>
+        <v>0.04086070123019375</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3179985292.759136</v>
+        <v>3648998019.898701</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1450795597620535</v>
+        <v>0.1910782345328874</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02983414616900855</v>
+        <v>0.03333355061439167</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2913187259.661514</v>
+        <v>3049522485.113081</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1126286279620269</v>
+        <v>0.1495687587417744</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03060403764046075</v>
+        <v>0.0232912058341905</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1908681618.746719</v>
+        <v>1451460946.939245</v>
       </c>
       <c r="F62" t="n">
-        <v>0.119061831128718</v>
+        <v>0.1470696578444067</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04585662510850987</v>
+        <v>0.0449445699711961</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4079120703.591922</v>
+        <v>3860483309.185493</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07416945425235333</v>
+        <v>0.0776475074089282</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04160679834515758</v>
+        <v>0.03443981739737745</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5099336125.895903</v>
+        <v>5535022009.912627</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1774524368394323</v>
+        <v>0.1800744493968206</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02266112861320636</v>
+        <v>0.03228556467631299</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3822343784.967142</v>
+        <v>5179572561.721858</v>
       </c>
       <c r="F65" t="n">
-        <v>0.114457486108752</v>
+        <v>0.1491854202014798</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02072997761250325</v>
+        <v>0.02379291609585479</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4386647050.49319</v>
+        <v>4596460369.27004</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1095058984217344</v>
+        <v>0.1482042837918638</v>
       </c>
       <c r="G66" t="n">
-        <v>0.046770160525858</v>
+        <v>0.0394450348180243</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2265467595.45579</v>
+        <v>2292563138.198315</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07896278502488785</v>
+        <v>0.09073324989220112</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04317268247649921</v>
+        <v>0.04454286529781864</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5563115007.098044</v>
+        <v>4828126705.995221</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1027229422734117</v>
+        <v>0.1059298827576864</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05035393720138099</v>
+        <v>0.04741466114032063</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2405415271.99904</v>
+        <v>1925022038.897495</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1405569394094981</v>
+        <v>0.1551782554552445</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05819400172243232</v>
+        <v>0.05732847010464062</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3460101115.88656</v>
+        <v>2876731785.27987</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0668441865729312</v>
+        <v>0.06617819944432526</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03808754875064804</v>
+        <v>0.0304166620962304</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5530556571.026306</v>
+        <v>4249592196.146117</v>
       </c>
       <c r="F71" t="n">
-        <v>0.131358142717903</v>
+        <v>0.1290738138379411</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02288249282795468</v>
+        <v>0.02367967120074118</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1600213646.498576</v>
+        <v>1660766431.028545</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08810500601852204</v>
+        <v>0.08378125246533025</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0389891476644558</v>
+        <v>0.03565261402256235</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3221616965.145011</v>
+        <v>3317812469.340582</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08535585871678787</v>
+        <v>0.08497297990867003</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03703174001937957</v>
+        <v>0.03375166045385432</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3102385302.024197</v>
+        <v>2570194213.845334</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1456158806869754</v>
+        <v>0.1726222860135516</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02923379315210122</v>
+        <v>0.03049591683102332</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1921473262.449469</v>
+        <v>2096827558.63578</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1655603801780617</v>
+        <v>0.1656260502183201</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02499582575692041</v>
+        <v>0.0231825993064574</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3504727261.69497</v>
+        <v>4954449231.428846</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08697120593753875</v>
+        <v>0.1199924997494526</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02867815512436814</v>
+        <v>0.03231015065765764</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2242855504.449755</v>
+        <v>1852736675.608903</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1163533164973462</v>
+        <v>0.1828783242773188</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02634655827031608</v>
+        <v>0.02621112167465502</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3274753239.268806</v>
+        <v>3971332764.640265</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1051465031564221</v>
+        <v>0.09859983668328634</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04344345925255337</v>
+        <v>0.03807582512448889</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1718466224.14879</v>
+        <v>1208421199.064126</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1490193403109575</v>
+        <v>0.1094926716879157</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03388991522953614</v>
+        <v>0.03951902203324249</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4138712559.89818</v>
+        <v>4333836221.143501</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07071317417538968</v>
+        <v>0.09117814531792495</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02442403136991805</v>
+        <v>0.02348928958645305</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3578742024.342335</v>
+        <v>4308153303.952453</v>
       </c>
       <c r="F81" t="n">
-        <v>0.132770720957467</v>
+        <v>0.09801994798828677</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02426793253665569</v>
+        <v>0.02917828090397605</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4888901979.953331</v>
+        <v>3550834113.614362</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2037197004777549</v>
+        <v>0.2109387742328433</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02387007992096775</v>
+        <v>0.01891548878743067</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2222823032.711592</v>
+        <v>2258478934.092784</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1262529424747538</v>
+        <v>0.1408646304282048</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03462400578663636</v>
+        <v>0.04140906290637956</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1728851581.558913</v>
+        <v>2530194404.72792</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08752143965455485</v>
+        <v>0.09283823072342295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03556890285199759</v>
+        <v>0.04662793587913153</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2900273098.300965</v>
+        <v>2219012143.02091</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1369647526348139</v>
+        <v>0.1548230247561708</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04915992136607381</v>
+        <v>0.03458269197337609</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1939064917.443623</v>
+        <v>2201942218.283977</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1234277822684438</v>
+        <v>0.1045798126627374</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01669507742555052</v>
+        <v>0.01698867238779198</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1228246094.99743</v>
+        <v>1358698017.285083</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1746654571095427</v>
+        <v>0.1489085947004666</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03824355163044147</v>
+        <v>0.03485104345850808</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3593711810.19462</v>
+        <v>3566492548.182205</v>
       </c>
       <c r="F88" t="n">
-        <v>0.154912491620568</v>
+        <v>0.1086840552810506</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03597674436067213</v>
+        <v>0.02542923603369586</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3400327703.225402</v>
+        <v>3459604627.009936</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1455878019207821</v>
+        <v>0.1111451908817585</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04018932578285107</v>
+        <v>0.03405522560632079</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2062579099.078918</v>
+        <v>1396999683.379458</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1344274301720036</v>
+        <v>0.08533335465128747</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04625639089878023</v>
+        <v>0.04003434835342162</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1475073752.141418</v>
+        <v>2084715136.471738</v>
       </c>
       <c r="F91" t="n">
-        <v>0.195606570534667</v>
+        <v>0.1838973964276142</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05038759120763631</v>
+        <v>0.04087386248683713</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2624544049.112139</v>
+        <v>2502019223.096335</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1090861468206358</v>
+        <v>0.07275124040161138</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04766249407731971</v>
+        <v>0.04458838322392247</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4105371412.269979</v>
+        <v>3574034609.158924</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1290310939622401</v>
+        <v>0.1408351696521331</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04462550606318452</v>
+        <v>0.04560769862235365</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1692411174.074467</v>
+        <v>1994516850.99632</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1558384641079755</v>
+        <v>0.1420222240585656</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0406905538161243</v>
+        <v>0.02641876145607991</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3242076805.723402</v>
+        <v>2319705249.255745</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1072155205810491</v>
+        <v>0.1183047536023231</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04959813884302702</v>
+        <v>0.03974563473357853</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2064794462.841593</v>
+        <v>2143691265.609905</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1409554849975533</v>
+        <v>0.1318567778467021</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04654530647609028</v>
+        <v>0.04352611674763494</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3622225877.845191</v>
+        <v>4315191581.245125</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1474698750562998</v>
+        <v>0.1358559387553677</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02100552688152068</v>
+        <v>0.02909526060200776</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2799443744.469027</v>
+        <v>3620671631.657397</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1158448038554405</v>
+        <v>0.1159772399492412</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02620132125346905</v>
+        <v>0.02508048299233683</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2935520682.440725</v>
+        <v>3152409724.697696</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1255477490454238</v>
+        <v>0.1253679242712704</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0326440921265936</v>
+        <v>0.02977657283200373</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2969800100.895364</v>
+        <v>3845883455.272469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1397240315102997</v>
+        <v>0.1615215300030429</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01831788696224423</v>
+        <v>0.02782140888463485</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3368570354.781919</v>
+        <v>2497426122.388733</v>
       </c>
       <c r="F101" t="n">
-        <v>0.194232485272834</v>
+        <v>0.1791556528868353</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0451134925408519</v>
+        <v>0.04894170948487658</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_445.xlsx
+++ b/output/fit_clients/fit_round_445.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2410384142.458087</v>
+        <v>1780018159.617336</v>
       </c>
       <c r="F2" t="n">
-        <v>0.106625999189866</v>
+        <v>0.07909845082134509</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0373976409758162</v>
+        <v>0.03137485869676173</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2463408095.939098</v>
+        <v>1881063029.220048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1543409192080387</v>
+        <v>0.1838523442708947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03481929010458147</v>
+        <v>0.0354479848759756</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5102161141.253864</v>
+        <v>3810828595.137183</v>
       </c>
       <c r="F4" t="n">
-        <v>0.154093151915565</v>
+        <v>0.1125613356871161</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03118177518926265</v>
+        <v>0.03265070146198942</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>225</v>
+      </c>
+      <c r="J4" t="n">
+        <v>445</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3225609701.869034</v>
+        <v>4242698608.298824</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09307624967249827</v>
+        <v>0.1066216413870067</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04379396652388018</v>
+        <v>0.04210208554247525</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>186</v>
+      </c>
+      <c r="J5" t="n">
+        <v>445</v>
+      </c>
+      <c r="K5" t="n">
+        <v>43.51140160641061</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2033876657.011893</v>
+        <v>2341890625.165654</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1310885820635766</v>
+        <v>0.1195415832881613</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04154041904088772</v>
+        <v>0.04102226267922564</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3035091843.497786</v>
+        <v>2121656736.398977</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06447238926592742</v>
+        <v>0.06723445895502361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04116605391073973</v>
+        <v>0.04532539690970253</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,16 +713,25 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3316223734.64204</v>
+        <v>3058016138.997825</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1894675734077306</v>
+        <v>0.1446249593057775</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02496030714165776</v>
+        <v>0.02562288571030851</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>122</v>
+      </c>
+      <c r="J8" t="n">
+        <v>444</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.7554683938788</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1787260558.204708</v>
+        <v>1980183501.342952</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1468130500354112</v>
+        <v>0.181156381672247</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03034921043070318</v>
+        <v>0.02543453337848956</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4662415382.760219</v>
+        <v>5526621660.777332</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2128720568326416</v>
+        <v>0.2003924606953018</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0402933373658099</v>
+        <v>0.05029787493998082</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>347</v>
+      </c>
+      <c r="J10" t="n">
+        <v>445</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3767605048.360136</v>
+        <v>3665646391.325596</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726712476046771</v>
+        <v>0.1771380373268125</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03568653746074179</v>
+        <v>0.04326606822433789</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" t="n">
+        <v>445</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2232534774.169764</v>
+        <v>2100837270.349308</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1946170829588192</v>
+        <v>0.1377099225430003</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03802418701899172</v>
+        <v>0.03919412760752367</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5078818420.250257</v>
+        <v>3444810088.414478</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09175745666141365</v>
+        <v>0.08334946029633132</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03081435140729939</v>
+        <v>0.02195451911874372</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>231</v>
+      </c>
+      <c r="J13" t="n">
+        <v>444</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26.79114355106794</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3470138130.662167</v>
+        <v>3449957407.368573</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1200928481690605</v>
+        <v>0.1307474448608151</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0442279426651524</v>
+        <v>0.03089273487267661</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="n">
+        <v>38.07755457412964</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1360236031.126464</v>
+        <v>1760187317.693135</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1066434884926454</v>
+        <v>0.1025356380293248</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03882555841988455</v>
+        <v>0.03135660620714702</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2055501059.68417</v>
+        <v>2736096965.548888</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1117850540854498</v>
+        <v>0.07250659110073354</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03628273807063068</v>
+        <v>0.03540035462614938</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3415523140.9727</v>
+        <v>3943147137.987611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1277078835147689</v>
+        <v>0.1401730978927068</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04690274796828865</v>
+        <v>0.04952314961315395</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>216</v>
+      </c>
+      <c r="J17" t="n">
+        <v>445</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2771604794.535387</v>
+        <v>3735219363.127052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.114655954453449</v>
+        <v>0.1717518242380485</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02650091063536564</v>
+        <v>0.03057966522228805</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>115</v>
+      </c>
+      <c r="J18" t="n">
+        <v>445</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1255939143.569241</v>
+        <v>1287972165.980878</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1579746903829381</v>
+        <v>0.1705393444418202</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01703154628723365</v>
+        <v>0.02357923897162039</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2328568716.151438</v>
+        <v>2676420545.776186</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1057548430979823</v>
+        <v>0.1433166320084168</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03015465392066417</v>
+        <v>0.02996996986918522</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2469108788.026923</v>
+        <v>2154719067.164368</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09771537596830436</v>
+        <v>0.09465675090190527</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03204110760349151</v>
+        <v>0.03097992348657031</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2931685359.296959</v>
+        <v>2937060625.990163</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1030388270077684</v>
+        <v>0.1286348309898135</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04670882061196337</v>
+        <v>0.0350734110705779</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>984163034.9033829</v>
+        <v>1229757873.02466</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1749771626797249</v>
+        <v>0.1192088426697838</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03416515778112241</v>
+        <v>0.05147975649873493</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2722852979.796187</v>
+        <v>3490071061.243399</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1130650111082556</v>
+        <v>0.1002711606981455</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03620153644019622</v>
+        <v>0.03528744593699901</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" t="n">
+        <v>444</v>
+      </c>
+      <c r="K24" t="n">
+        <v>30.43946585311497</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1283012444.708333</v>
+        <v>1452881012.777159</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09289608601495489</v>
+        <v>0.0991911740604545</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02506095090937573</v>
+        <v>0.0295528105627752</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1334295742.072236</v>
+        <v>986368344.9670918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1198930359159902</v>
+        <v>0.09971711918509403</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02416338372975903</v>
+        <v>0.02443231190975311</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4610683324.611472</v>
+        <v>4675275505.846859</v>
       </c>
       <c r="F27" t="n">
-        <v>0.104135308438586</v>
+        <v>0.144539626635767</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02041754353647298</v>
+        <v>0.01930951104019252</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>193</v>
+      </c>
+      <c r="J27" t="n">
+        <v>445</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3337401245.738405</v>
+        <v>2921336545.527334</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1481934993254163</v>
+        <v>0.1030848112527582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04421485277946326</v>
+        <v>0.03735612003940728</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1450,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3805152181.342392</v>
+        <v>3888046379.134048</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1400258241486562</v>
+        <v>0.118670502707578</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03665576116981229</v>
+        <v>0.04045847425896394</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>363</v>
+      </c>
+      <c r="J29" t="n">
+        <v>445</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1915919356.949788</v>
+        <v>2021618869.769522</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09460920324510963</v>
+        <v>0.1014653707280347</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03018330561402073</v>
+        <v>0.02784387825645405</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1123486655.088834</v>
+        <v>1251025175.015836</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07593671593369307</v>
+        <v>0.09185359042795327</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0411731457449448</v>
+        <v>0.03901561642600328</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1731754818.205722</v>
+        <v>1151905845.310003</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08213147749927041</v>
+        <v>0.09160986136018905</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02916794318256857</v>
+        <v>0.03782673191092803</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2739145910.703363</v>
+        <v>2137063110.050416</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1695567982616085</v>
+        <v>0.1536197636609606</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05502864688701242</v>
+        <v>0.04843271734977184</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1039298874.446632</v>
+        <v>1519777287.95197</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0996002990236944</v>
+        <v>0.108805330258652</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02557765962993662</v>
+        <v>0.02613275782454105</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1053060105.280452</v>
+        <v>1001111793.949575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08585148579152628</v>
+        <v>0.08207505161696721</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03631878146326047</v>
+        <v>0.02993040253063778</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2909118274.028695</v>
+        <v>2283296180.970153</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1388691838030179</v>
+        <v>0.1509217529907314</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01742919641071004</v>
+        <v>0.02037492939656987</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2257505286.323106</v>
+        <v>2556720219.512619</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08981369903040558</v>
+        <v>0.09099634084614035</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0296029335953067</v>
+        <v>0.04247614360915259</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1381369740.376348</v>
+        <v>1897886186.312498</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1149074261471087</v>
+        <v>0.0852925435367633</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03080094853951416</v>
+        <v>0.03685404676602005</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1381078822.049767</v>
+        <v>1626808039.976939</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1665529224228119</v>
+        <v>0.1441002235837718</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02916718014901965</v>
+        <v>0.01995935704299555</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1841,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1534604399.619274</v>
+        <v>1218074268.138686</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1291328608166437</v>
+        <v>0.1550645616980308</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05876213017878459</v>
+        <v>0.03850567446296879</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1919582560.607252</v>
+        <v>1960761256.86365</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1425805889087667</v>
+        <v>0.1524400667722787</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04222144263152874</v>
+        <v>0.02892867200373118</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1905,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3664665165.584026</v>
+        <v>3935538779.317564</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1010735626413957</v>
+        <v>0.09986698316764156</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04279166013763852</v>
+        <v>0.03734403049270191</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>193</v>
+      </c>
+      <c r="J42" t="n">
+        <v>445</v>
+      </c>
+      <c r="K42" t="n">
+        <v>43.59923552991942</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1987012431.400975</v>
+        <v>2330851420.847227</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1733548404209135</v>
+        <v>0.1845188552188095</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02232708982231724</v>
+        <v>0.01699972616356025</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2115666984.259506</v>
+        <v>2360581944.949674</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1010431815082224</v>
+        <v>0.06848330766005604</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03507777152211866</v>
+        <v>0.03117368185237097</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2170406484.93414</v>
+        <v>2345320997.789829</v>
       </c>
       <c r="F45" t="n">
-        <v>0.17814358548691</v>
+        <v>0.1201763008734397</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0397828373674354</v>
+        <v>0.04956650803470704</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3894251714.527849</v>
+        <v>3832057938.911454</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1765929150993399</v>
+        <v>0.1369676577436512</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05150340830839365</v>
+        <v>0.03794638460927253</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>264</v>
+      </c>
+      <c r="J46" t="n">
+        <v>445</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3633129026.307391</v>
+        <v>3713572926.481831</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1734999178646538</v>
+        <v>0.1732822316104725</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05080069757456478</v>
+        <v>0.04464283462105298</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>200</v>
+      </c>
+      <c r="J47" t="n">
+        <v>445</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4111566260.777172</v>
+        <v>4231008147.463232</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08960134577536664</v>
+        <v>0.09621962442661931</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03835545740450552</v>
+        <v>0.03369633410273012</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>224</v>
+      </c>
+      <c r="J48" t="n">
+        <v>445</v>
+      </c>
+      <c r="K48" t="n">
+        <v>39.78692292796359</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1496449160.322924</v>
+        <v>1277915804.066193</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1718771193990331</v>
+        <v>0.131178992699798</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03574094110538976</v>
+        <v>0.03472170198366385</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2195,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3974657197.34604</v>
+        <v>4096604778.79495</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1126221197449849</v>
+        <v>0.1154127208113269</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03675976168126113</v>
+        <v>0.05326586903137324</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>159</v>
+      </c>
+      <c r="J50" t="n">
+        <v>445</v>
+      </c>
+      <c r="K50" t="n">
+        <v>42.7605230167616</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1080063156.730672</v>
+        <v>1455067934.355448</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1237538512360295</v>
+        <v>0.1434705759302197</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03938830252031127</v>
+        <v>0.03411602786305598</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2267,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4061607344.003886</v>
+        <v>5035738309.949746</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1211968976233014</v>
+        <v>0.1099121868190197</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03757528642091364</v>
+        <v>0.0516323484899194</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>254</v>
+      </c>
+      <c r="J52" t="n">
+        <v>444</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33.90658363280895</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2361930852.496604</v>
+        <v>3454598130.389797</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2043254326920042</v>
+        <v>0.1942965747497659</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02377500849248538</v>
+        <v>0.02722825382441003</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2339,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4875804692.634431</v>
+        <v>4512239858.896797</v>
       </c>
       <c r="F54" t="n">
-        <v>0.133057736854159</v>
+        <v>0.1505401231671964</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05151635416199568</v>
+        <v>0.04684120588678981</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>234</v>
+      </c>
+      <c r="J54" t="n">
+        <v>445</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4705373516.447772</v>
+        <v>4598859665.665325</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1513447283186982</v>
+        <v>0.1973611653671356</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02268008107332637</v>
+        <v>0.02230870407989912</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>221</v>
+      </c>
+      <c r="J55" t="n">
+        <v>444</v>
+      </c>
+      <c r="K55" t="n">
+        <v>35.40633435307665</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1497390224.608814</v>
+        <v>1184776529.828881</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1358094903153172</v>
+        <v>0.1627159132581352</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05388713760427261</v>
+        <v>0.05434335015100267</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2976137765.702007</v>
+        <v>3175438298.460506</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1562182618917924</v>
+        <v>0.1320128417837979</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02720371094038866</v>
+        <v>0.01851725881071571</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>193</v>
+      </c>
+      <c r="J57" t="n">
+        <v>444</v>
+      </c>
+      <c r="K57" t="n">
+        <v>23.3646020259246</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1572073997.863043</v>
+        <v>1170996985.492482</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1838609356307133</v>
+        <v>0.1758820610625345</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03936900797493034</v>
+        <v>0.02852527452008064</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4451066810.776811</v>
+        <v>3938586451.546933</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1049425315911741</v>
+        <v>0.1135613339531427</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04086070123019375</v>
+        <v>0.03252158385351517</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>217</v>
+      </c>
+      <c r="J59" t="n">
+        <v>445</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3648998019.898701</v>
+        <v>2519728445.495492</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1910782345328874</v>
+        <v>0.1402096805434686</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03333355061439167</v>
+        <v>0.02748965980865161</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3049522485.113081</v>
+        <v>2512032261.748619</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1495687587417744</v>
+        <v>0.1505576012277289</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0232912058341905</v>
+        <v>0.03151116347535603</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1451460946.939245</v>
+        <v>2055310007.462981</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1470696578444067</v>
+        <v>0.1560712715047065</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0449445699711961</v>
+        <v>0.0361373735057424</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3860483309.185493</v>
+        <v>4197896568.314092</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0776475074089282</v>
+        <v>0.1033180828255862</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03443981739737745</v>
+        <v>0.03148551058014881</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>222</v>
+      </c>
+      <c r="J63" t="n">
+        <v>444</v>
+      </c>
+      <c r="K63" t="n">
+        <v>37.03682980076073</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5535022009.912627</v>
+        <v>3505037262.843453</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1800744493968206</v>
+        <v>0.1685951573925064</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03228556467631299</v>
+        <v>0.02787916042746057</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>223</v>
+      </c>
+      <c r="J64" t="n">
+        <v>444</v>
+      </c>
+      <c r="K64" t="n">
+        <v>24.26969297850686</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5179572561.721858</v>
+        <v>5672926415.696139</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1491854202014798</v>
+        <v>0.1259561770266566</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02379291609585479</v>
+        <v>0.03050597069537043</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>320</v>
+      </c>
+      <c r="J65" t="n">
+        <v>444</v>
+      </c>
+      <c r="K65" t="n">
+        <v>34.17829780060367</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4596460369.27004</v>
+        <v>4379436428.000527</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482042837918638</v>
+        <v>0.1429575920518001</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0394450348180243</v>
+        <v>0.04124162406067886</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>219</v>
+      </c>
+      <c r="J66" t="n">
+        <v>445</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2292563138.198315</v>
+        <v>2723688912.425235</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09073324989220112</v>
+        <v>0.09496224201366182</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04454286529781864</v>
+        <v>0.04050402549723038</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4828126705.995221</v>
+        <v>6066035370.904807</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1059298827576864</v>
+        <v>0.154293181314211</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04741466114032063</v>
+        <v>0.05035526560986472</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>242</v>
+      </c>
+      <c r="J68" t="n">
+        <v>445</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1925022038.897495</v>
+        <v>2347392008.148288</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1551782554552445</v>
+        <v>0.1430283991735731</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05732847010464062</v>
+        <v>0.04284761306296194</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2876731785.27987</v>
+        <v>3498867830.904832</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06617819944432526</v>
+        <v>0.09610745875467129</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0304166620962304</v>
+        <v>0.03004116906765745</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4249592196.146117</v>
+        <v>3505258127.237544</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1290738138379411</v>
+        <v>0.1775982443320651</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02367967120074118</v>
+        <v>0.02086590369817772</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>306</v>
+      </c>
+      <c r="J71" t="n">
+        <v>444</v>
+      </c>
+      <c r="K71" t="n">
+        <v>25.25833923501592</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1660766431.028545</v>
+        <v>1388313246.119978</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08378125246533025</v>
+        <v>0.08809699121596794</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03565261402256235</v>
+        <v>0.04545758206412785</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3317812469.340582</v>
+        <v>2518155929.943573</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08497297990867003</v>
+        <v>0.09741354062066196</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03375166045385432</v>
+        <v>0.03472348747103315</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2570194213.845334</v>
+        <v>2744732213.185521</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1726222860135516</v>
+        <v>0.1150527197573612</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03049591683102332</v>
+        <v>0.02150844634342784</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>128</v>
+      </c>
+      <c r="J74" t="n">
+        <v>443</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2096827558.63578</v>
+        <v>2495065711.575437</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1656260502183201</v>
+        <v>0.1397136976093109</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0231825993064574</v>
+        <v>0.02631457464330969</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4954449231.428846</v>
+        <v>3634296535.438021</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1199924997494526</v>
+        <v>0.07539774456641053</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03231015065765764</v>
+        <v>0.03158009715201427</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>212</v>
+      </c>
+      <c r="J76" t="n">
+        <v>443</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1852736675.608903</v>
+        <v>1817806462.875476</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1828783242773188</v>
+        <v>0.1580578586470383</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02621112167465502</v>
+        <v>0.0289023569662306</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3971332764.640265</v>
+        <v>3194090396.002967</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09859983668328634</v>
+        <v>0.08432824643307082</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03807582512448889</v>
+        <v>0.04551006015622143</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>222</v>
+      </c>
+      <c r="J78" t="n">
+        <v>442</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3226,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1208421199.064126</v>
+        <v>1385872704.384056</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1094926716879157</v>
+        <v>0.143930726626749</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03951902203324249</v>
+        <v>0.02882717020204877</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4333836221.143501</v>
+        <v>4965949360.790336</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09117814531792495</v>
+        <v>0.07846080924347693</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02348928958645305</v>
+        <v>0.02978728045543984</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>217</v>
+      </c>
+      <c r="J80" t="n">
+        <v>444</v>
+      </c>
+      <c r="K80" t="n">
+        <v>33.51856429247074</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4308153303.952453</v>
+        <v>4822650932.252095</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09801994798828677</v>
+        <v>0.1156274690268422</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02917828090397605</v>
+        <v>0.02639202941112374</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>207</v>
+      </c>
+      <c r="J81" t="n">
+        <v>444</v>
+      </c>
+      <c r="K81" t="n">
+        <v>33.39112161745221</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3550834113.614362</v>
+        <v>4525222408.025588</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2109387742328433</v>
+        <v>0.2172318792883661</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01891548878743067</v>
+        <v>0.02215599046018845</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>298</v>
+      </c>
+      <c r="J82" t="n">
+        <v>444</v>
+      </c>
+      <c r="K82" t="n">
+        <v>36.74270512083928</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2258478934.092784</v>
+        <v>2080861830.125894</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1408646304282048</v>
+        <v>0.1267871160582734</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04140906290637956</v>
+        <v>0.03422984012014627</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2530194404.72792</v>
+        <v>2435334196.795801</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09283823072342295</v>
+        <v>0.1158213788323917</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04662793587913153</v>
+        <v>0.03742603671057919</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2219012143.02091</v>
+        <v>3083919041.104538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1548230247561708</v>
+        <v>0.1577737911017721</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03458269197337609</v>
+        <v>0.04003125508276249</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2201942218.283977</v>
+        <v>2437310048.422151</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1045798126627374</v>
+        <v>0.1408932345725104</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01698867238779198</v>
+        <v>0.02504640264114517</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1358698017.285083</v>
+        <v>977915992.8444846</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1489085947004666</v>
+        <v>0.1815950962985959</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03485104345850808</v>
+        <v>0.02740947057850594</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3566492548.182205</v>
+        <v>3075305347.386807</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1086840552810506</v>
+        <v>0.1743051371719752</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02542923603369586</v>
+        <v>0.03692879748593766</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3459604627.009936</v>
+        <v>3271807713.617583</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1111451908817585</v>
+        <v>0.1592479782322796</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03405522560632079</v>
+        <v>0.0287830632731099</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1396999683.379458</v>
+        <v>1978856568.580408</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08533335465128747</v>
+        <v>0.09538134569857214</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04003434835342162</v>
+        <v>0.03419560427134336</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2084715136.471738</v>
+        <v>1683669903.115072</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1838973964276142</v>
+        <v>0.1736598171894822</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04087386248683713</v>
+        <v>0.04637913174600133</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2502019223.096335</v>
+        <v>2513463682.3865</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07275124040161138</v>
+        <v>0.1078862486999333</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04458838322392247</v>
+        <v>0.03400620624275669</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3574034609.158924</v>
+        <v>4376992406.292235</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1408351696521331</v>
+        <v>0.1153640328491036</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04560769862235365</v>
+        <v>0.05374106450762561</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>213</v>
+      </c>
+      <c r="J93" t="n">
+        <v>445</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1994516850.99632</v>
+        <v>1728695357.589351</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1420222240585656</v>
+        <v>0.1298922500553941</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02641876145607991</v>
+        <v>0.03574129035359814</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2319705249.255745</v>
+        <v>2736185173.633229</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1183047536023231</v>
+        <v>0.1020681544008228</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03974563473357853</v>
+        <v>0.03190557413552573</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2143691265.609905</v>
+        <v>1880222377.160783</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1318567778467021</v>
+        <v>0.08932773437164984</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04352611674763494</v>
+        <v>0.03001646174487776</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4315191581.245125</v>
+        <v>5346612553.71016</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1358559387553677</v>
+        <v>0.127911847991057</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02909526060200776</v>
+        <v>0.01929228978381227</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>233</v>
+      </c>
+      <c r="J97" t="n">
+        <v>444</v>
+      </c>
+      <c r="K97" t="n">
+        <v>34.41922721850597</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3620671631.657397</v>
+        <v>2428715764.646959</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1159772399492412</v>
+        <v>0.07965564000572371</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02508048299233683</v>
+        <v>0.02590223053394806</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3152409724.697696</v>
+        <v>2471543458.529365</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1253679242712704</v>
+        <v>0.09785364130530454</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02977657283200373</v>
+        <v>0.02423983542205989</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3845883455.272469</v>
+        <v>3966930706.645284</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1615215300030429</v>
+        <v>0.1777723082904143</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02782140888463485</v>
+        <v>0.02650279140919713</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>206</v>
+      </c>
+      <c r="J100" t="n">
+        <v>445</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2497426122.388733</v>
+        <v>3068077651.421367</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1791556528868353</v>
+        <v>0.2155666401448503</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04894170948487658</v>
+        <v>0.03786118259177531</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>45</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="n">
+        <v>41.35803616347278</v>
       </c>
     </row>
   </sheetData>
